--- a/com.wellerv.ezalor.sample.xlsx
+++ b/com.wellerv.ezalor.sample.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="21495" windowHeight="10245"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="ioHistory" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="95">
   <si>
     <t>com.wellerv.ezalor.sample ioHistory</t>
   </si>
@@ -98,6 +98,9 @@
     <t>2018-02-06 10:18:49.925</t>
   </si>
   <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>RxCachedThreadScheduler-2</t>
   </si>
   <si>
@@ -126,6 +129,9 @@
     <t>2018-02-06 10:18:49.936</t>
   </si>
   <si>
+    <t>unbufferedIO</t>
+  </si>
+  <si>
     <t>/storage/emulated/0/Android/data/com.wellerv.ezalor.sample/cache/1.test</t>
   </si>
   <si>
@@ -331,181 +337,24 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -520,192 +369,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFE0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -728,313 +397,21 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="50">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -1043,7 +420,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="303030"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -1322,29 +699,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="72.625" customWidth="1"/>
-    <col min="2" max="3" width="25.7083333333333" customWidth="1"/>
-    <col min="13" max="14" width="23.7083333333333" customWidth="1"/>
-    <col min="15" max="15" width="8.46666666666667" customWidth="1"/>
-    <col min="16" max="16" width="8.89166666666667" customWidth="1"/>
+    <col min="1" max="1" width="72.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
+    <col min="13" max="13" width="23.7109375" customWidth="1"/>
+    <col min="14" max="14" width="23.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" spans="1:1">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" ht="15" spans="1:15">
+    <row r="2" spans="1:15">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -1391,7 +766,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" ht="15" spans="1:14">
+    <row r="3" spans="1:15">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -1434,274 +809,295 @@
       <c r="N3" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="4" ht="15" spans="1:14">
-      <c r="A4" s="2" t="s">
+      <c r="O3" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" s="2">
-        <v>18409</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="3">
+        <v>18409</v>
+      </c>
+      <c r="E4" s="3">
         <v>1184</v>
       </c>
-      <c r="F4" s="2">
-        <v>0</v>
-      </c>
-      <c r="G4" s="2">
-        <v>0</v>
-      </c>
-      <c r="H4" s="2">
-        <v>0</v>
-      </c>
-      <c r="I4" s="2">
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
         <v>29</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="3">
         <v>2900</v>
       </c>
-      <c r="K4" s="2">
+      <c r="K4" s="3">
         <v>15</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="D5" s="3">
+        <v>18409</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1184</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>13</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1300</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="N4" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" ht="15" spans="1:14">
-      <c r="A5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2">
-        <v>18409</v>
-      </c>
-      <c r="E5" s="2">
+      <c r="M5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="3">
+        <v>18409</v>
+      </c>
+      <c r="E6" s="3">
         <v>1184</v>
       </c>
-      <c r="F5" s="2">
-        <v>0</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0</v>
-      </c>
-      <c r="I5" s="2">
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>28</v>
+      </c>
+      <c r="J6" s="3">
+        <v>2800</v>
+      </c>
+      <c r="K6" s="3">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>18409</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1184</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>24</v>
+      </c>
+      <c r="J7" s="3">
+        <v>2400</v>
+      </c>
+      <c r="K7" s="3">
         <v>13</v>
       </c>
-      <c r="J5" s="2">
+      <c r="L7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="3">
+        <v>18409</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1184</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>16</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1600</v>
+      </c>
+      <c r="K8" s="3">
+        <v>8</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="3">
+        <v>18409</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1184</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>13</v>
+      </c>
+      <c r="J9" s="3">
         <v>1300</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K9" s="3">
         <v>5</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="2" t="s">
+      <c r="L9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="2" t="s">
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="6" ht="15" spans="1:14">
-      <c r="A6" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2">
-        <v>18409</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1184</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0</v>
-      </c>
-      <c r="I6" s="2">
-        <v>28</v>
-      </c>
-      <c r="J6" s="2">
-        <v>2800</v>
-      </c>
-      <c r="K6" s="2">
-        <v>20</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="7" ht="15" spans="1:14">
-      <c r="A7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="2">
-        <v>18409</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1184</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0</v>
-      </c>
-      <c r="I7" s="2">
-        <v>24</v>
-      </c>
-      <c r="J7" s="2">
-        <v>2400</v>
-      </c>
-      <c r="K7" s="2">
-        <v>13</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" ht="15" spans="1:14">
-      <c r="A8" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D8" s="2">
-        <v>18409</v>
-      </c>
-      <c r="E8" s="2">
-        <v>1184</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0</v>
-      </c>
-      <c r="I8" s="2">
-        <v>16</v>
-      </c>
-      <c r="J8" s="2">
-        <v>1600</v>
-      </c>
-      <c r="K8" s="2">
-        <v>8</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="N8" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" ht="15" spans="1:14">
-      <c r="A9" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="2">
-        <v>18409</v>
-      </c>
-      <c r="E9" s="2">
-        <v>1184</v>
-      </c>
-      <c r="F9" s="2">
-        <v>0</v>
-      </c>
-      <c r="G9" s="2">
-        <v>0</v>
-      </c>
-      <c r="H9" s="2">
-        <v>0</v>
-      </c>
-      <c r="I9" s="2">
-        <v>13</v>
-      </c>
-      <c r="J9" s="2">
-        <v>1300</v>
-      </c>
-      <c r="K9" s="2">
-        <v>5</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="N9" s="2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" ht="15" spans="1:14">
-      <c r="A10" s="2" t="s">
-        <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>17</v>
@@ -1737,15 +1133,18 @@
         <v>19</v>
       </c>
       <c r="M10" s="2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="N10" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" ht="15" spans="1:14">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>17</v>
@@ -1781,15 +1180,18 @@
         <v>19</v>
       </c>
       <c r="M11" s="2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N11" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" ht="15" spans="1:14">
+        <v>46</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="2" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -1825,15 +1227,18 @@
         <v>19</v>
       </c>
       <c r="M12" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N12" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" ht="15" spans="1:14">
+        <v>48</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>17</v>
@@ -1869,15 +1274,18 @@
         <v>19</v>
       </c>
       <c r="M13" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="N13" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" ht="15" spans="1:14">
+        <v>50</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>17</v>
@@ -1913,15 +1321,18 @@
         <v>19</v>
       </c>
       <c r="M14" s="2" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="N14" s="2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" ht="15" spans="1:14">
+        <v>52</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>17</v>
@@ -1957,15 +1368,18 @@
         <v>19</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="N15" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" ht="15" spans="1:14">
+        <v>55</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="2" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>17</v>
@@ -2001,15 +1415,18 @@
         <v>19</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="N16" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" ht="15" spans="1:14">
+        <v>58</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="2" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>17</v>
@@ -2045,15 +1462,18 @@
         <v>19</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="N17" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="18" ht="15" spans="1:14">
+        <v>61</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="2" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>17</v>
@@ -2089,15 +1509,18 @@
         <v>19</v>
       </c>
       <c r="M18" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="N18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" ht="15" spans="1:14">
+        <v>64</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="2" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>17</v>
@@ -2133,15 +1556,18 @@
         <v>19</v>
       </c>
       <c r="M19" s="2" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N19" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="15" spans="1:14">
+        <v>67</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="2" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -2177,15 +1603,18 @@
         <v>19</v>
       </c>
       <c r="M20" s="2" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N20" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="21" ht="15" spans="1:14">
+        <v>70</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>17</v>
@@ -2221,15 +1650,18 @@
         <v>19</v>
       </c>
       <c r="M21" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="22" ht="15" spans="1:14">
+        <v>73</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>17</v>
@@ -2265,15 +1697,18 @@
         <v>19</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N22" s="2" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" ht="15" spans="1:14">
+        <v>76</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>17</v>
@@ -2309,15 +1744,18 @@
         <v>19</v>
       </c>
       <c r="M23" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" ht="15" spans="1:14">
+        <v>79</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>17</v>
@@ -2353,15 +1791,18 @@
         <v>19</v>
       </c>
       <c r="M24" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N24" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="25" ht="15" spans="1:14">
+        <v>82</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>17</v>
@@ -2397,15 +1838,18 @@
         <v>19</v>
       </c>
       <c r="M25" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N25" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" ht="15" spans="1:14">
+        <v>85</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>17</v>
@@ -2441,15 +1885,18 @@
         <v>19</v>
       </c>
       <c r="M26" s="2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="N26" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="27" ht="15" spans="1:14">
+        <v>88</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" s="2" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>17</v>
@@ -2485,15 +1932,18 @@
         <v>19</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="N27" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="28" ht="15" spans="1:14">
+        <v>91</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>17</v>
@@ -2529,14 +1979,16 @@
         <v>19</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N28" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>